--- a/Arrangement/Tuticha/수지기능설계01.xlsx
+++ b/Arrangement/Tuticha/수지기능설계01.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82102\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developCha\Spring_Study\Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="01" sheetId="1" r:id="rId1"/>
+    <sheet name="02" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>메인페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +156,138 @@
   </si>
   <si>
     <t>탈퇴이유선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">환불 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 재입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰 번호 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일 주소 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일 인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 수집 및 이용 동의 (필수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅 광고 수싲여부 동의 (선택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:I43"/>
+  <dimension ref="C9:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -625,7 +758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
         <v>4</v>
       </c>
@@ -633,32 +766,217 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.4">
       <c r="F41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.4">
       <c r="E43" t="s">
         <v>31</v>
       </c>
       <c r="F43" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="F52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
